--- a/public/BRANŻE.xlsx
+++ b/public/BRANŻE.xlsx
@@ -9265,7 +9265,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -9279,7 +9279,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -9503,6 +9506,7 @@
     <col customWidth="1" min="1" max="1" width="4.38"/>
     <col customWidth="1" min="2" max="2" width="31.0"/>
     <col customWidth="1" min="3" max="3" width="111.13"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -35689,8 +35693,8 @@
       <c r="A2381" s="2">
         <v>2380.0</v>
       </c>
-      <c r="B2381" s="2">
-        <v>2380.0</v>
+      <c r="B2381" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2381" s="3" t="s">
         <v>2369</v>
@@ -35700,8 +35704,8 @@
       <c r="A2382" s="2">
         <v>2381.0</v>
       </c>
-      <c r="B2382" s="2">
-        <v>2380.0</v>
+      <c r="B2382" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2382" s="3" t="s">
         <v>2370</v>
@@ -35711,8 +35715,8 @@
       <c r="A2383" s="2">
         <v>2382.0</v>
       </c>
-      <c r="B2383" s="2">
-        <v>2380.0</v>
+      <c r="B2383" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2383" s="3" t="s">
         <v>2371</v>
@@ -35722,8 +35726,8 @@
       <c r="A2384" s="2">
         <v>2383.0</v>
       </c>
-      <c r="B2384" s="2">
-        <v>2380.0</v>
+      <c r="B2384" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2384" s="3" t="s">
         <v>2372</v>
@@ -35733,8 +35737,8 @@
       <c r="A2385" s="2">
         <v>2384.0</v>
       </c>
-      <c r="B2385" s="2">
-        <v>2380.0</v>
+      <c r="B2385" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2385" s="3" t="s">
         <v>2373</v>
@@ -35744,8 +35748,8 @@
       <c r="A2386" s="2">
         <v>2385.0</v>
       </c>
-      <c r="B2386" s="2">
-        <v>2380.0</v>
+      <c r="B2386" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2386" s="3" t="s">
         <v>2374</v>
@@ -35755,8 +35759,8 @@
       <c r="A2387" s="2">
         <v>2386.0</v>
       </c>
-      <c r="B2387" s="2">
-        <v>2380.0</v>
+      <c r="B2387" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2387" s="3" t="s">
         <v>2375</v>
@@ -35766,8 +35770,8 @@
       <c r="A2388" s="2">
         <v>2387.0</v>
       </c>
-      <c r="B2388" s="2">
-        <v>2380.0</v>
+      <c r="B2388" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2388" s="3" t="s">
         <v>2376</v>
@@ -35777,8 +35781,8 @@
       <c r="A2389" s="2">
         <v>2388.0</v>
       </c>
-      <c r="B2389" s="2">
-        <v>2380.0</v>
+      <c r="B2389" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2389" s="3" t="s">
         <v>2377</v>
@@ -35788,8 +35792,8 @@
       <c r="A2390" s="2">
         <v>2389.0</v>
       </c>
-      <c r="B2390" s="2">
-        <v>2380.0</v>
+      <c r="B2390" s="5">
+        <v>2379.0</v>
       </c>
       <c r="C2390" s="3" t="s">
         <v>2378</v>
@@ -39484,8 +39488,8 @@
       <c r="A2726" s="2">
         <v>2725.0</v>
       </c>
-      <c r="B2726" s="2">
-        <v>2725.0</v>
+      <c r="B2726" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2726" s="3" t="s">
         <v>2714</v>
@@ -39495,8 +39499,8 @@
       <c r="A2727" s="2">
         <v>2726.0</v>
       </c>
-      <c r="B2727" s="2">
-        <v>2725.0</v>
+      <c r="B2727" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2727" s="3" t="s">
         <v>2715</v>
@@ -39506,8 +39510,8 @@
       <c r="A2728" s="2">
         <v>2727.0</v>
       </c>
-      <c r="B2728" s="2">
-        <v>2725.0</v>
+      <c r="B2728" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2728" s="3" t="s">
         <v>2716</v>
@@ -39517,8 +39521,8 @@
       <c r="A2729" s="2">
         <v>2728.0</v>
       </c>
-      <c r="B2729" s="2">
-        <v>2725.0</v>
+      <c r="B2729" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2729" s="3" t="s">
         <v>2717</v>
@@ -39528,8 +39532,8 @@
       <c r="A2730" s="2">
         <v>2729.0</v>
       </c>
-      <c r="B2730" s="2">
-        <v>2725.0</v>
+      <c r="B2730" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2730" s="3" t="s">
         <v>2718</v>
@@ -39539,8 +39543,8 @@
       <c r="A2731" s="2">
         <v>2730.0</v>
       </c>
-      <c r="B2731" s="2">
-        <v>2725.0</v>
+      <c r="B2731" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2731" s="3" t="s">
         <v>2719</v>
@@ -39550,8 +39554,8 @@
       <c r="A2732" s="2">
         <v>2731.0</v>
       </c>
-      <c r="B2732" s="2">
-        <v>2725.0</v>
+      <c r="B2732" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2732" s="3" t="s">
         <v>2720</v>
@@ -39561,8 +39565,8 @@
       <c r="A2733" s="2">
         <v>2732.0</v>
       </c>
-      <c r="B2733" s="2">
-        <v>2725.0</v>
+      <c r="B2733" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2733" s="3" t="s">
         <v>2721</v>
@@ -39572,8 +39576,8 @@
       <c r="A2734" s="2">
         <v>2733.0</v>
       </c>
-      <c r="B2734" s="2">
-        <v>2725.0</v>
+      <c r="B2734" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2734" s="3" t="s">
         <v>2722</v>
@@ -39583,8 +39587,8 @@
       <c r="A2735" s="2">
         <v>2734.0</v>
       </c>
-      <c r="B2735" s="2">
-        <v>2725.0</v>
+      <c r="B2735" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2735" s="3" t="s">
         <v>2723</v>
@@ -39594,8 +39598,8 @@
       <c r="A2736" s="2">
         <v>2735.0</v>
       </c>
-      <c r="B2736" s="2">
-        <v>2725.0</v>
+      <c r="B2736" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2736" s="3" t="s">
         <v>2724</v>
@@ -39605,8 +39609,8 @@
       <c r="A2737" s="2">
         <v>2736.0</v>
       </c>
-      <c r="B2737" s="2">
-        <v>2725.0</v>
+      <c r="B2737" s="6">
+        <v>2724.0</v>
       </c>
       <c r="C2737" s="3" t="s">
         <v>2725</v>
